--- a/contents.xlsx
+++ b/contents.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3කට කඩා මගේ බැනුම් අහන තැනක් තමයි ශ්‍රී ලංකා ක්‍රිකට් තේරීම් කමිටුව කියන්නේ තේරීම් කමිටු සභාපති වරයා තනතුරින් ඉවත් වෙලා තිබුණා එළඹෙන පොදු සංචාරය ඉලක්ක කරලා ඔහු නම් කළ තවමත් අනුමැතියක් නොලැබුණු තිස් පස් දෙනෙක් වියතුන් සංචිතයෙන් පසුගිය දේශීය පළමු පෙළ ප්‍රචාරය වැඩිම ලකුණුලාභියා විදිහට ඉස්සරහම හිටපු ලහිරු උදාර කැපිලා කියලා තමයි ආරංචි වෙන විදියට මේ තිස් පස් දෙනා අතරට කඩුලු රකින පිතිකරුවන් කිහිප දෙනෙක් ඇතුළත් වුණත් ලහිරු හේතුවක් අවස්ථාවක් දෙන්නේ නැතුව කැපිල ගියක නම් පුදුමයට කරුණක් බංග්ලාදේශ කණ්ඩායම එක තරගාවලියට නම් කළ පුහුණු සංචිතය හිටපු උදාර දකුණු අප්‍රිකා සංචාරය කැපිලා ගියේ ඔහුට වඩා ලහිරු තිරිමාන්න සංචාරයට වැදගත් වෙයි කියන තේරීම් කමිටුවේ අදහසත් එක්ක ඒත් අර ගමනින් පස්සේ ග්‍රන්ථයක තරගාවලිය උදාර සුදුස්සෙක් වුණේ නැහැ ආබාධ සුව වීමත් එක්ක කණ්ඩායමට පැමිණීමත් දිරිමත් කුසල් ආරම්භ ප්‍රතිකාර විදියට යොදා ගැනීමත් එක්ක ලහිරු ශ්‍රී ලංකා කණ්ඩායමට සෙල්ලම් කරන්න එක් වුණේ නැහැ අවසන් දුන් දේශීය පල පෙළ තරගාවලියේ ලකුණු 1039 ලබාගත ලහිරු 87 ක සාමාන්‍යයක් වගේම 87 ප්‍රහාරක වේගයක් එක්ක ශබ්ද තුනකුත් අර්ධ ශතක 6 කුත් එක්ක ලකුණු ලබාගත් ක්‍රීඩකයින් තරගකාරී ම ලකුණු 290 නිකුත් ඔහුට මින් සටහන් වෙලා තියෙනවා සමාන්‍යෙන් දිගින් දිගටම අසාර්ථක වෙලත් සමහර ක්‍රීඩකයන්ට දිගින් දිගටම අවස්ථා බීල කණ්ඩායම සංචිතවල වැඩකරන් තියාගෙන ඉන්න කියලා චෝදනා එල්ල තේරීම් කමිටුව මගින් අනුමත - දක්ෂතා බල උපරිම ඉන්න අවස්ථාවක හේතුවක් නැතුව ක්‍රීඩක සංචිත වලින් නොසලකා හැරීම නම් ඒ ක්‍රීඩකයන්ගේ අනාගතයට හොඳ වෙන එකක් නැහැ ගිලිහී දිනපතා බලන අපත් සමග එකතු වන්න ඔබ තවමත් අපි channel එක subscribe කරලා නැත්නම් දැන්ම to subscribe කරන්නත් ක්‍රිකට් වලට කැමති යාලුවෙකුට බලන්න මෙයා කරන්නත් අමතක කරන්න එපා ප්‍රගති ගේ නම් දෙස් අපිට තවත් හමුවන තෙක් ලංකාවේ තියෙන ඔයාට සුභ දවසක්</t>
+          <t xml:space="preserve"> කොළඹ wife on jul 1 මේ වෙනකොට නිල වශයෙන් ශ්‍රී ලංකාවෙන් නිකුත් කරලා තියෙනවා ට කිරීමට කරන්න පුළුවන් හැකියාව තියෙනවාද කතා කරන්න වල වෙනස් කරල තියන විදිහට ශ්‍රී ලංකාවේ කරන්නේ කොහොමද ඒ වගේම ප්‍රියකරන prices කොහොමද නොමිලේ මොනවද හම්බ වෙන්නේ installment පහසුකම තියෙනවද wedding card debit card වගේ දේවල් හිතේ කරන්න පුළුවන්ද සහ ඇත්තටම මමත් අද preorder කරල ගන්න තමයි ලෑස්ති වෙන්න පහසු ඒ වගේම මේ හම්බෙන පෙනී පීඩිත ඉතින් තවදුරටත් කතා කර කර ඉන්න ඇතුව අපි යමු වීඩියෝ එකට ඔයාට පුලුවන් කෙනෙක් store.lk ගෙන website එකට යන්න genex ආ තමයි ශ්‍රී ලංකාවේ apple authorized distributors ලක් මීට අමතරව apple authorized service provider වගේම දැන් එකක් සඳහා horizon විදිහටත් genex ලංකාවේ වැඩකටයුතු කරගෙන යනවා එතකොට genuine product එකක් හෝ එක්ක හොඳ සේවාවන් එක මිලදී ගන්නවා නං ඔයාට geek store.lk ගෙන බැස්සා එහෙම නැත්තම් මේ ලඟ contact details ඇතුලෙන් මේ බලන්න ස්කෝලෙක කොහෙද තියෙන්නෙ කියලා මෙලෝ සඳහන් කරලා තියෙනවා ඉතින් ඒ අය සයිට් එකට ගියොත් මුලින්ම සදහන් කරලා තියෙනවා මේ තියෙන්නෙ මේක ක්‍රියෝඪ කරන්න පුළුවන්ලු දැන් අද ඉඳන් දෙසැම්බර් 3 දක්වා වට මේ දේවල් රීල කරන්න පුළුවන් හැකියාව තියෙනවා ඉතිං මේ තියෙන්නෙ apple iphone 11 apple iphone 11 pro එක සහ iphone 12 pro max images වලට ගිහිල්ලා බැලුවොත් එක එක දේවල් වලට එක එක දේවල් තමයි මා ප්‍රිය ඕඩර් කරද්දි නොමිලේ උදාහරණයක් විදිහට ඔයා iphone 12 මිනි එක හෝ iphone බිල්ලට ඕඩර් කරොත් ඔයාට මේ විදිහට free bag set charge එකක් සහ cw ඇඩික්ට් එකක් හම්බ වෙනවා මෙන්න මේ පෑන් කාඩ් පේමන්ට් කරොත් මාස 12 මාස 24 දක්වා instuctions තියෙනවා කියලා මේ ගැන සඳහන් කරලා තියෙනවා ඊළඟට අපි යනවා apple iphone 11 pro සහ apple iphone pro max එකේ මොනවද තියනවා කියල බලන්න මට පේන වැදි අයිපෝන් එකක් හෝ pro max එකක් ඔයා ක්‍රියෝඪ කරාම මේවට airport to එකක් හම්බ වෙනවා කියලත් සඳහන් වෙනවා මං හිතන්නේ දැන් මම මේ හැම එකටම ගිහිල්ලා ඔයාට free order කරලා තමයි පෙන්නන්න ලෑස්තිවෙන්නේ පළවෙනි එක තමයි ඔයාට පුලුවන් iphone file mini එකට යන්න මම මෙතනින් මේ විදිහට මට අවශ්‍ය ස්ටෝර් එක සහ කළ 188 පෙනෙනු ඇති රුපියල් 184 දාස් ගානක් තමයි මෙතන පෙන්නන්න ශ්‍රී ලංකාවේ ගොඩක්ම අඩු මිලක් විදිහට අපිට මේක සඳහන් කරන්න පුළුවන් දිනකට මම යනවා ඇතුළු අයිපෝන් juwel එකේ prices බලන්න ඔයාට පේනවා ඇති මට ඕනේ සහ කාලය කරන දෙලක්ෂ නම දහස් ගණනක් විදියට අපිට එක පෙන්නනවා ඇයි කෝල් එක රුපියල් දෙලක්ෂ 68 දහස් ගණනක විදිහටත් අවසාන වශයෙන් apple pro max එක රුපියල් දෙලක්ෂ 94000 සිය අනුව විදිහටත් බලාගන්න පුළුවන් සමගින් මේක මිලදී ගන්න කොට පොඩ්ඩක් අනිත් අය වගේම ශ්‍රී ලංකාවේ ෂොප් එක දැකලා බවට ඔයාට ගොඩක්ම ලොකු මිල අඩුකිරීමක් preorder කරනවාට install විදිහට කරන්න පුළුවන් හැකියාව ඒ වගේම නොමිලේ දේවල් හම්බෙනවා honda freed එක කරන්නේ කියලා මට ඕනේ storage එක මට ඕන කළ එක සෙල කරට පස්සේ ඔයාට පුලුවන් මේක කාඩ් එකට ඇඩ් කරගන්න එක්කොට පෙනුම ඇති ප්‍රයිස් එක මේගොල්ල දක්වන්න අයිපෝන් එකට විතරයි අනිත් නොමිලේ ලබා දෙන දේවල් සම්පූර්ණයෙන්ම free කියලා තමයි මේ වල සඳහන් කරලා තියෙන්නෙ මේ වෙනකොට genext account එකක් නැත්නම් මට ඒක කරගන්න පුළුවන් ඊළඟට වට පෙනුමැති payment option සිංහල සඳහන් කරලා තියෙනවා වීසා මාස්ටර් යුනියන් පෙ කරන්න පුළුවන් ඊට අමතරව පෙනුමැති comercial bank එකේ install මන් විදිහට අපේ කරනවා නං ඒක වටේ කරන්න පුළුවන් හැකියාවක් nation trust bank එකේ install one විදිහට පෙර කරන්න පුළුවන් හැකියාවත් sampath bank එකේ installment ඉහත කරන්න පුළුවන් හැකියාවක් තියෙනවලු කැමති ඔප්ෂන් එකක් සෙට් කරලා වට checkout කරල payment එක කරන්න පුළුවන් ඇදලා සඳහන් කරනවා දෙසැම්බර් 4 වැනි දින තමයි titanfall වෙන්නේ දින කීපයක් ඇතුලත ගෙදරට ගෙන්න ගන්න පුලුවන් හැකියාවක් නැත්තං කෝල් එක ඇවිල්ල කරන්න පුළුවන් හැකියාවක් මේක හරහා ඔබට ලැබෙන මොනාහරි ප්‍රශ්න තියෙනවා නම් ඔයාට පුළුවන් genext ou.lk ගෙන website එකට දීලා උඹලගෙ phone numbers උන්ට power cut දෙන්නේ මං නැත්තං genext එක විසික් කරන්න ඊට අමතරව ලංකාවේ තව apple authorized reseller සහ jeans for readersnow official අහසේ කියන්නේ මිනිහෙක් එයිද pro max 1 දක්වා ඕනේ කරලා ලබාගන්න පුළුවන් පිරිමි ලඟට දෙසැම්බර් 4වැනිදා තමයි ඇත්තටම මේ items ටිකේ label වෙන්නේ මං pre order karapuwa මට ගන්න පුළුවන් හිටිය පළ වෙන්නේ මම අර ගත්ත ගමන් ඊළඟට iphone x1 අරගෙන එන්න බලාපොරොත්තු වෙනවා ඉතින් එච්චර substiles කරන්න infected කරන්න ඒ වගේම මේ ෆෝන් හතරින් මා කැමතිම phone එක මොකක්ද iphone to iphone to iphone from iphone to mac the germ infection in දාන්න අමතක කරන්න එපා</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> කොළඹ wife on jul 1 මේ වෙනකොට නිල වශයෙන් ශ්‍රී ලංකාවෙන් නිකුත් කරලා තියෙනවා ට කිරීමට කරන්න පුළුවන් හැකියාව තියෙනවාද කතා කරන්න වල වෙනස් කරල තියන විදිහට ශ්‍රී ලංකාවේ කරන්නේ කොහොමද ඒ වගේම ප්‍රියකරන prices කොහොමද නොමිලේ මොනවද හම්බ වෙන්නේ installment පහසුකම තියෙනවද wedding card debit card වගේ දේවල් හිතේ කරන්න පුළුවන්ද සහ ඇත්තටම මමත් අද preorder කරල ගන්න තමයි ලෑස්ති වෙන්න පහසු ඒ වගේම මේ හම්බෙන පෙනී පීඩිත ඉතින් තවදුරටත් කතා කර කර ඉන්න ඇතුව අපි යමු වීඩියෝ එකට ඔයාට පුලුවන් කෙනෙක් store.lk ගෙන website එකට යන්න genex ආ තමයි ශ්‍රී ලංකාවේ apple authorized distributors ලක් මීට අමතරව apple authorized service provider වගේම දැන් එකක් සඳහා horizon විදිහටත් genex ලංකාවේ වැඩකටයුතු කරගෙන යනවා එතකොට genuine product එකක් හෝ එක්ක හොඳ සේවාවන් එක මිලදී ගන්නවා නං ඔයාට geek store.lk ගෙන බැස්සා එහෙම නැත්තම් මේ ලඟ contact details ඇතුලෙන් මේ බලන්න ස්කෝලෙක කොහෙද තියෙන්නෙ කියලා මෙලෝ සඳහන් කරලා තියෙනවා ඉතින් ඒ අය සයිට් එකට ගියොත් මුලින්ම සදහන් කරලා තියෙනවා මේ තියෙන්නෙ මේක ක්‍රියෝඪ කරන්න පුළුවන්ලු දැන් අද ඉඳන් දෙසැම්බර් 3 දක්වා වට මේ දේවල් රීල කරන්න පුළුවන් හැකියාව තියෙනවා ඉතිං මේ තියෙන්නෙ apple iphone 11 apple iphone 11 pro එක සහ iphone 12 pro max images වලට ගිහිල්ලා බැලුවොත් එක එක දේවල් වලට එක එක දේවල් තමයි මා ප්‍රිය ඕඩර් කරද්දි නොමිලේ උදාහරණයක් විදිහට ඔයා iphone 12 මිනි එක හෝ iphone බිල්ලට ඕඩර් කරොත් ඔයාට මේ විදිහට free bag set charge එකක් සහ cw ඇඩික්ට් එකක් හම්බ වෙනවා මෙන්න මේ පෑන් කාඩ් පේමන්ට් කරොත් මාස 12 මාස 24 දක්වා instuctions තියෙනවා කියලා මේ ගැන සඳහන් කරලා තියෙනවා ඊළඟට අපි යනවා apple iphone 11 pro සහ apple iphone pro max එකේ මොනවද තියනවා කියල බලන්න මට පේන වැදි අයිපෝන් එකක් හෝ pro max එකක් ඔයා ක්‍රියෝඪ කරාම මේවට airport to එකක් හම්බ වෙනවා කියලත් සඳහන් වෙනවා මං හිතන්නේ දැන් මම මේ හැම එකටම ගිහිල්ලා ඔයාට free order කරලා තමයි පෙන්නන්න ලෑස්තිවෙන්නේ පළවෙනි එක තමයි ඔයාට පුලුවන් iphone file mini එකට යන්න මම මෙතනින් මේ විදිහට මට අවශ්‍ය ස්ටෝර් එක සහ කළ 188 පෙනෙනු ඇති රුපියල් 184 දාස් ගානක් තමයි මෙතන පෙන්නන්න ශ්‍රී ලංකාවේ ගොඩක්ම අඩු මිලක් විදිහට අපිට මේක සඳහන් කරන්න පුළුවන් දිනකට මම යනවා ඇතුළු අයිපෝන් juwel එකේ prices බලන්න ඔයාට පේනවා ඇති මට ඕනේ සහ කාලය කරන දෙලක්ෂ නම දහස් ගණනක් විදියට අපිට එක පෙන්නනවා ඇයි කෝල් එක රුපියල් දෙලක්ෂ 68 දහස් ගණනක විදිහටත් අවසාන වශයෙන් apple pro max එක රුපියල් දෙලක්ෂ 94000 සිය අනුව විදිහටත් බලාගන්න පුළුවන් සමගින් මේක මිලදී ගන්න කොට පොඩ්ඩක් අනිත් අය වගේම ශ්‍රී ලංකාවේ ෂොප් එක දැකලා බවට ඔයාට ගොඩක්ම ලොකු මිල අඩුකිරීමක් preorder කරනවාට install විදිහට කරන්න පුළුවන් හැකියාව ඒ වගේම නොමිලේ දේවල් හම්බෙනවා honda freed එක කරන්නේ කියලා මට ඕනේ storage එක මට ඕන කළ එක සෙල කරට පස්සේ ඔයාට පුලුවන් මේක කාඩ් එකට ඇඩ් කරගන්න එක්කොට පෙනුම ඇති ප්‍රයිස් එක මේගොල්ල දක්වන්න අයිපෝන් එකට විතරයි අනිත් නොමිලේ ලබා දෙන දේවල් සම්පූර්ණයෙන්ම free කියලා තමයි මේ වල සඳහන් කරලා තියෙන්නෙ මේ වෙනකොට genext account එකක් නැත්නම් මට ඒක කරගන්න පුළුවන් ඊළඟට වට පෙනුමැති payment option සිංහල සඳහන් කරලා තියෙනවා වීසා මාස්ටර් යුනියන් පෙ කරන්න පුළුවන් ඊට අමතරව පෙනුමැති comercial bank එකේ install මන් විදිහට අපේ කරනවා නං ඒක වටේ කරන්න පුළුවන් හැකියාවක් nation trust bank එකේ install one විදිහට පෙර කරන්න පුළුවන් හැකියාවත් sampath bank එකේ installment ඉහත කරන්න පුළුවන් හැකියාවක් තියෙනවලු කැමති ඔප්ෂන් එකක් සෙට් කරලා වට checkout කරල payment එක කරන්න පුළුවන් ඇදලා සඳහන් කරනවා දෙසැම්බර් 4 වැනි දින තමයි titanfall වෙන්නේ දින කීපයක් ඇතුලත ගෙදරට ගෙන්න ගන්න පුලුවන් හැකියාවක් නැත්තං කෝල් එක ඇවිල්ල කරන්න පුළුවන් හැකියාවක් මේක හරහා ඔබට ලැබෙන මොනාහරි ප්‍රශ්න තියෙනවා නම් ඔයාට පුළුවන් genext ou.lk ගෙන website එකට දීලා උඹලගෙ phone numbers උන්ට power cut දෙන්නේ මං නැත්තං genext එක විසික් කරන්න ඊට අමතරව ලංකාවේ තව apple authorized reseller සහ jeans for readersnow official අහසේ කියන්නේ මිනිහෙක් එයිද pro max 1 දක්වා ඕනේ කරලා ලබාගන්න පුළුවන් පිරිමි ලඟට දෙසැම්බර් 4වැනිදා තමයි ඇත්තටම මේ items ටිකේ label වෙන්නේ මං pre order karapuwa මට ගන්න පුළුවන් හිටිය පළ වෙන්නේ මම අර ගත්ත ගමන් ඊළඟට iphone x1 අරගෙන එන්න බලාපොරොත්තු වෙනවා ඉතින් එච්චර substiles කරන්න infected කරන්න ඒ වගේම මේ ෆෝන් හතරින් මා කැමතිම phone එක මොකක්ද iphone to iphone to iphone from iphone to mac the germ infection in දාන්න අමතක කරන්න එපා</t>
+          <t xml:space="preserve"> අඩවි ගොඩක් හින්දියෙන් කතා කරන්න යන්නේ ඔයාගේ computer එක කොහොමද automatically shutdown කරන්න කියලා අපි හිතුවා මොකද file එකක් download වෙන්න දාල දෙනවා එහෙම නැත්තං වෙන්නේ දාලා තියෙනවා වෙන්න දාලා තියෙනවා එතකොට පැය දානකම් පෙර ගෙඩියක් බලන් ඉන්න ඕනේ කීයට හරි මේක shutdown කරන්න අපිට ඕන වෙලාවක් දාලා මේක shutdown automatically software නැතුව කරගන්න පුළුවන් ඒක අපිට ගොඩක් ලොකු පහසුවක් වෙයි බලන්න මීට කලින් කරමු windows tips බලන්න චනුක්ස් windows 10 අමතක කරන්න එපා මේකට වර කිසිම සොෆ්ට්වෙයා ඕනෙ නැහැ ඔන්න බලන්න ඔයාගේ computer එකේ ස්ටාර්ට් එකට ගිහිල්ලා මේ රන් කියන එකට යන්න ගියාට පස්සේ මට මෙන්න මේ විදියේ කත් බලාගන්න පුළුවන් මෙතන ඔයාට හරිම කෙටියෙන් shutdown space minus a space minus කියලා ගහලා කොච්චර වෙලාවකින් the shutdown වෙන්න ඕනේ කියලා තත්පර වලින් ගහන්න මෙතන හැට ගහන එකෙන් මට විනාඩියකින් තප්පර 60කින් තමයි shutdown වෙන්න ඕනෙ නම් මෙතෙන්ට කරපු ගමන් s ගියාට පස්සෙ automatically මේ විදියට වගේ computer එක shutdown වෙනවා කොයි තරං ලේසි ද ඔයා මෙතනින් 60 ගහන්නේ විනාඩියකින් sundown වෙන්න කියන්න 120 කියන්නේ විනාඩි දෙකකින් shutdown වෙන්න කියන්න 1818 මෙන්න මෙතන 3610 පුළුවන් වැද්දෝ නං ඔයාට මෙතන 7200 ටයිප් කරන්න පුළුවන් මං හිතන්නේ මේක ගොඩක් use ටිප් එකක් ඒ වගේම කොහොමද ටයිප් කරන්න ඕනේ නැහැ පුංචි icon එකක් එකට දාගන්න පුලුවන් නම් මේක කරලා පෙන්වමු මට තේරුම් ගන්න පුළුවන් වෙයි පුළුවන් වෙබ් එකේ ෆොටෝ එකක් ඇතුලෙ write creative short cuts ඔන්න ඊට පස්සේ අර කලින් කියපු command එක මෙතන ටයිප් කරන්න තමයි තියෙන්නේ මම මේ විදිහට shutdown s t හැටයි කියල විනාඩියකින් වෙන්න දාලා නෙක්ස්ට් කරන්න පස්සෙ ඔයාට ආයි ගහනවා මං මේක ශබ්ද කියලම දිලා next කරන්න පසුවට පෙන්න ඇති icon එකක් ආවා ඔයාට ඕනෙනම් එක මෙහෙම පාවිච්චි කරන්න පුළුවන් නැත්තං ඒක right click කරල properties සිංහල වන කැමති icon එකක් දාගන්නත් පුළුවන් ඔයාට මේක පැයකින් හරි ඔයා ටයිප් කරන්න ඕනම වෙලාවක කෝල් කරලා ගියපු ගමන් automatically shutdown වෙනවා අද අපි කතා කරපු simple php එක නොහිතන මේ දවස් වල from home ගෙදර ඉඳන් venizuela කරනවා ඒ වගේම ගෙදර ඉඳන් පාඩම් කරනවා එතකොට පරිගණකේ මේ පුංචි පුංචි පුංචි අපිට නිතරම පාවිච්චි කරන්න පුළුවන් මේක ගොඩක් use කරගන්න අපිට හොඳ කෝල් එකක් වෙනවා ඒ වගේම මට මේ minus ඒ වෙනුවට mina සර් කියලා ගැහුවොත් computer එකක් වට අවශ්‍ය වෙලාවක දීමේ ස්ටාර්ට් කරගන්නත් පුළුවන් එකාට මොන ට්‍රිප් එකක් නෙමෙයි දේවල් බලන්න subscribe කරන්න instu game එකෙක් එපා කරන්න යාලුවෙක්ට දැනගන්න මේ වීඩියෝ එක ශෙයා කරන්න උදව් සිංහයෙකුගෙන් අලුත් දෙවල් ගොඩක් මට හමුවෙමු</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wExrFbaz-Z4</t>
+          <t>2wbfT7ciNBs</t>
         </is>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> අඩවි ගොඩක් හින්දියෙන් කතා කරන්න යන්නේ ඔයාගේ computer එක කොහොමද automatically shutdown කරන්න කියලා අපි හිතුවා මොකද file එකක් download වෙන්න දාල දෙනවා එහෙම නැත්තං වෙන්නේ දාලා තියෙනවා වෙන්න දාලා තියෙනවා එතකොට පැය දානකම් පෙර ගෙඩියක් බලන් ඉන්න ඕනේ කීයට හරි මේක shutdown කරන්න අපිට ඕන වෙලාවක් දාලා මේක shutdown automatically software නැතුව කරගන්න පුළුවන් ඒක අපිට ගොඩක් ලොකු පහසුවක් වෙයි බලන්න මීට කලින් කරමු windows tips බලන්න චනුක්ස් windows 10 අමතක කරන්න එපා මේකට වර කිසිම සොෆ්ට්වෙයා ඕනෙ නැහැ ඔන්න බලන්න ඔයාගේ computer එකේ ස්ටාර්ට් එකට ගිහිල්ලා මේ රන් කියන එකට යන්න ගියාට පස්සේ මට මෙන්න මේ විදියේ කත් බලාගන්න පුළුවන් මෙතන ඔයාට හරිම කෙටියෙන් shutdown space minus a space minus කියලා ගහලා කොච්චර වෙලාවකින් the shutdown වෙන්න ඕනේ කියලා තත්පර වලින් ගහන්න මෙතන හැට ගහන එකෙන් මට විනාඩියකින් තප්පර 60කින් තමයි shutdown වෙන්න ඕනෙ නම් මෙතෙන්ට කරපු ගමන් s ගියාට පස්සෙ automatically මේ විදියට වගේ computer එක shutdown වෙනවා කොයි තරං ලේසි ද ඔයා මෙතනින් 60 ගහන්නේ විනාඩියකින් sundown වෙන්න කියන්න 120 කියන්නේ විනාඩි දෙකකින් shutdown වෙන්න කියන්න 1818 මෙන්න මෙතන 3610 පුළුවන් වැද්දෝ නං ඔයාට මෙතන 7200 ටයිප් කරන්න පුළුවන් මං හිතන්නේ මේක ගොඩක් use ටිප් එකක් ඒ වගේම කොහොමද ටයිප් කරන්න ඕනේ නැහැ පුංචි icon එකක් එකට දාගන්න පුලුවන් නම් මේක කරලා පෙන්වමු මට තේරුම් ගන්න පුළුවන් වෙයි පුළුවන් වෙබ් එකේ ෆොටෝ එකක් ඇතුලෙ write creative short cuts ඔන්න ඊට පස්සේ අර කලින් කියපු command එක මෙතන ටයිප් කරන්න තමයි තියෙන්නේ මම මේ විදිහට shutdown s t හැටයි කියල විනාඩියකින් වෙන්න දාලා නෙක්ස්ට් කරන්න පස්සෙ ඔයාට ආයි ගහනවා මං මේක ශබ්ද කියලම දිලා next කරන්න පසුවට පෙන්න ඇති icon එකක් ආවා ඔයාට ඕනෙනම් එක මෙහෙම පාවිච්චි කරන්න පුළුවන් නැත්තං ඒක right click කරල properties සිංහල වන කැමති icon එකක් දාගන්නත් පුළුවන් ඔයාට මේක පැයකින් හරි ඔයා ටයිප් කරන්න ඕනම වෙලාවක කෝල් කරලා ගියපු ගමන් automatically shutdown වෙනවා අද අපි කතා කරපු simple php එක නොහිතන මේ දවස් වල from home ගෙදර ඉඳන් venizuela කරනවා ඒ වගේම ගෙදර ඉඳන් පාඩම් කරනවා එතකොට පරිගණකේ මේ පුංචි පුංචි පුංචි අපිට නිතරම පාවිච්චි කරන්න පුළුවන් මේක ගොඩක් use කරගන්න අපිට හොඳ කෝල් එකක් වෙනවා ඒ වගේම මට මේ minus ඒ වෙනුවට mina සර් කියලා ගැහුවොත් computer එකක් වට අවශ්‍ය වෙලාවක දීමේ ස්ටාර්ට් කරගන්නත් පුළුවන් එකාට මොන ට්‍රිප් එකක් නෙමෙයි දේවල් බලන්න subscribe කරන්න instu game එකෙක් එපා කරන්න යාලුවෙක්ට දැනගන්න මේ වීඩියෝ එක ශෙයා කරන්න උදව් සිංහයෙකුගෙන් අලුත් දෙවල් ගොඩක් මට හමුවෙමු</t>
+          <t xml:space="preserve"> මගේ තියෙන සැම්සුන්ග් ගැලැක්සි ෆෝන් එකක් ආසන්න වශයෙන් රුපියල් දෙලක්ෂ හැත්තෑ දාහකට විතර තමයි මිළදීගත ඉගෙන ලක්ෂ තුනක් විතර මේ ඉතිං එකේ value එක මේ ෆෝන් එක රුපියල් පනස්දාහට විතර බස්සන්න පුළුවන් වුණා මෙන්න මේ පුංචි එක නිසා අඩු වෙනුවෙන් ඉගෙන ගන්න යන්නේ වගේ ස්මාට් ෆෝන් එකේ screen එක අනිවාර්යෙන්ම කන වගේ රැක ගන්න වෙනවා එහෙම නැත්නම් මගේ ෆෝන් එකේ value එක විතර නැති වෙන්න ඕන තරම් ඉඩ තියෙනවා මේකෙ මෙන්න මේ වගේ පුංචි දූ එකක් තමයි වෙන්නේ ආවෙ ඇත්තම මේ ස්ක්‍රීන් එක රීප්ලේස් කරන්න රුපියල් කීයක් යනවා කියලද ඔයාල හිතාගෙන ඉන්නේ මම ඒක ඔයාට කියනවට වැඩිය අපි samsung service center එකට කතා කරල බලමු සැම්සුං ගැලැක්සි නෝට්ටුව bro ෆෝන් එකේ screen එක රීප්ලේස් කරන්න රුපියල් කීයක් යනවද කියලා ක්‍රීම් එක රීප්ලේස් කරන්න වෙන අවස්ථා මොනවද ඔයා things when එක හිතෙන්න පුළුවන් ඔයාගෙන් ෆෝන් එක වැටෙන්න පුළුවන් ඔයා thing පෝන් එක ප්‍රෙස් වෙන්න පුළුවන් විශේෂම ෆෝන් එක සාක්කුවේ දාගෙන ඉන්නකොට ෆෝන් එකක් හද වෙන්න පුළුවන් වෙන මේ වගේ අවස්ථා ගණනාවකදී මේ ස්ක්‍රීන් එක සම්පූර්ණයෙන්ම ඩැමේජ් ජල යන්න ඕන තරම් ඉඩ තියෙනවා අපි gorillaz නෙමෙයි මොන තරම් strength එකක් තියෙන මොනතරම් song ග්ලාස් එකක් මේකට දාල තිබුනත් රහස් කැඩෙනවා glass බිඳෙනවා මේවා හානි වෙනවා කියන එක හොයාගෙන ගන්න ඕනේ නෑනේ කරල අපි හිතමු මේක රුපියල් දෙලක්ෂ හැත්තෑ දාකට අපි මිලදී ගත්තා එතකොට මේකේ second hand market එක මේ වෙනකොට තියෙන්නේ ගෙන මාස හයකට විතර පස්සෙ 150000 190000 විතරක් අතර පිරින් එතකොට අපි වේගය murders case එක ගත්තොත් screen එකක් වට දාන් ආසන්න වශයෙන් රුපියල් ලක්ෂයක් විතර යනවා නේ අමු දෙදහස් කියන්නේ ඉතින් ඊට පස්සේ ඔයාට මේක විකුණන්න සිද්ධවෙන්නේ එකේ value එක වෙනුවෙන් රුපියල් පනස් දාහක් විතර තමයි මම එක රීප්ලේස් කරන්න ගියාම ඒ ගොල්ල කියන්නේ මේක දැන් පක්ෂවලට හොඳයි මේ පුංචි ඉතින් ඒ screen එකේ value එක එහෙමද touch screen එකේ මිල ගණන් මෙච්චර වැඩි නිසා තමයි ෆෝන් එකේ value එක මේ විදියට වේගයෙන් අඩු වෙන්න පටන් අරගෙන තියෙන්නේ තමයි මම පොඩ්ඩක් නෙට් එකේ සර්ච් කරලා බැලුවා ඉන්ටර්නෙට් එකෙන් එකක්නෙ place කරන්න රුපියල් කීයක් යනවද කියලා ඇතිනේ ඩොලර් 269 කියලා තමයි දෙක ආසන්න වශයෙන් රුපියල් දෙදහක් විතර ax1 එතකොට service charge හරි මොනාහරි 92000 ඇත්තටම ටිකක් ලොකු ගානක් ඉගෙන ගන්න තියෙන පාඩම තමයි අපි screen එක ගොඩක් හොඳට රැකගන්න නම් අර කලින් කියපු විදිහට වෙන්න ගත්තා ලේසියෙන්ම ඩැමේජ් වෙන්න ඉඩ තියෙනවා අපි හිතන්නෙවත් නැති වෙලාවේ ගොඩක් වෙලාවට hemi use කරන්නැති පෝන් එකක් වුණත් මේ විදිහට ස්ප්‍රින් එක tamil වෙන්න ඕන තරම් ඉඩ තියෙනවා මං හිතන්නේ කරමින් සිටින්නේ ගෙන ආ වගේ ෆෝන් එකේ screen එක ඩැමේජ් වෙලා තියෙනවද කොච්චර කාලෙකට කලින් ද ඒ වගේම මොකක් කරන්න ගියාද screen එක එයි දිනේ එක රීප්ලේස් කරන්න රුපියල් කීයද ෆෝන් එක මොකක්ද වගේ දේවල් අපි පොඩ්ඩක් පලයන් මේ සාකච්ඡා කරමු ඔයාගේ ඒ කමෙන්ට් ටික එකතු කරලා අපිට තව වීඩියෝ එකක් හදන්න පුළුවන් වෙයි ශ්‍රී ලංකාවේ මේය ස්මාට් ෆෝන් වල ස්ක්‍රීන් භාවිතය ගැන ඉතින් අවසාන වශයෙන් අපි ඉගෙන ගන්න තියෙන පාඩම තමයි ෆෝන් එකක් මිලදී ගන්න කොට අපි screen protector එකක් පාවිච්චි කරන්න ඕනේ ඒ වගේම බැක් කවර් එකක් වගේ දෙයක් පාවිච්චි කරන්න ද මේකෙ front එකේ එඩ්‍රස් එක වගේ වෙනවා ඇම්බැක්කේ ගියාම අපිට ඒ වගේම ටිකක් ලොකු මුදලක් එක රීප්ලේස් කරන්න එන නිසා ෆෝන් එකටත් ඇක්ෂන් එකක් දාගන්න සිද්ධ වෙනවා කියලා තමයි අද වීඩියෝ එක අද වීඩියෝ ගැන මට හිතුන දේවල් අනිවාර්යෙන් පල කෑම කන්න ගෙන් දන්නවාට තව ගැටලු තියෙනවනම් palagama සෙක්ස් උන්ගෙන් අපි සාකච්ඡා කරමු ඊලගට අපි බලමු මේක රිප්ලේස් කරන්න ගියාම මේකට උන්ට කිරීම කරන්න පුළුවන් වෙයිද ඒ මං ගත්තම ඒකට අපිට මුදල් ගෙවන්නේ වෙයිද එක රීප්ලේස් කරන්න රුපියල් කීයක් යයිද එතකොට කොච්චර දින ගණනක් යයිද මේ හැමදෙයක්ම අපි වෙනුවෙන් කතා කරන්න බලාපොරොත්තු වෙනවා කරන්න install කරන්න යාලුවෙක් දැන ගන්න වීඩියෝ එක ශෙයා කරන්න ඉගෙන සිංහල ගීක් ෂෝ එකේ අලුත් දේවල් ගොඩක් කරන්න හම්බ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2wbfT7ciNBs</t>
+          <t>yZD3oerZ_Pw</t>
         </is>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> මගේ තියෙන සැම්සුන්ග් ගැලැක්සි ෆෝන් එකක් ආසන්න වශයෙන් රුපියල් දෙලක්ෂ හැත්තෑ දාහකට විතර තමයි මිළදීගත ඉගෙන ලක්ෂ තුනක් විතර මේ ඉතිං එකේ value එක මේ ෆෝන් එක රුපියල් පනස්දාහට විතර බස්සන්න පුළුවන් වුණා මෙන්න මේ පුංචි එක නිසා අඩු වෙනුවෙන් ඉගෙන ගන්න යන්නේ වගේ ස්මාට් ෆෝන් එකේ screen එක අනිවාර්යෙන්ම කන වගේ රැක ගන්න වෙනවා එහෙම නැත්නම් මගේ ෆෝන් එකේ value එක විතර නැති වෙන්න ඕන තරම් ඉඩ තියෙනවා මේකෙ මෙන්න මේ වගේ පුංචි දූ එකක් තමයි වෙන්නේ ආවෙ ඇත්තම මේ ස්ක්‍රීන් එක රීප්ලේස් කරන්න රුපියල් කීයක් යනවා කියලද ඔයාල හිතාගෙන ඉන්නේ මම ඒක ඔයාට කියනවට වැඩිය අපි samsung service center එකට කතා කරල බලමු සැම්සුං ගැලැක්සි නෝට්ටුව bro ෆෝන් එකේ screen එක රීප්ලේස් කරන්න රුපියල් කීයක් යනවද කියලා ක්‍රීම් එක රීප්ලේස් කරන්න වෙන අවස්ථා මොනවද ඔයා things when එක හිතෙන්න පුළුවන් ඔයාගෙන් ෆෝන් එක වැටෙන්න පුළුවන් ඔයා thing පෝන් එක ප්‍රෙස් වෙන්න පුළුවන් විශේෂම ෆෝන් එක සාක්කුවේ දාගෙන ඉන්නකොට ෆෝන් එකක් හද වෙන්න පුළුවන් වෙන මේ වගේ අවස්ථා ගණනාවකදී මේ ස්ක්‍රීන් එක සම්පූර්ණයෙන්ම ඩැමේජ් ජල යන්න ඕන තරම් ඉඩ තියෙනවා අපි gorillaz නෙමෙයි මොන තරම් strength එකක් තියෙන මොනතරම් song ග්ලාස් එකක් මේකට දාල තිබුනත් රහස් කැඩෙනවා glass බිඳෙනවා මේවා හානි වෙනවා කියන එක හොයාගෙන ගන්න ඕනේ නෑනේ කරල අපි හිතමු මේක රුපියල් දෙලක්ෂ හැත්තෑ දාකට අපි මිලදී ගත්තා එතකොට මේකේ second hand market එක මේ වෙනකොට තියෙන්නේ ගෙන මාස හයකට විතර පස්සෙ 150000 190000 විතරක් අතර පිරින් එතකොට අපි වේගය murders case එක ගත්තොත් screen එකක් වට දාන් ආසන්න වශයෙන් රුපියල් ලක්ෂයක් විතර යනවා නේ අමු දෙදහස් කියන්නේ ඉතින් ඊට පස්සේ ඔයාට මේක විකුණන්න සිද්ධවෙන්නේ එකේ value එක වෙනුවෙන් රුපියල් පනස් දාහක් විතර තමයි මම එක රීප්ලේස් කරන්න ගියාම ඒ ගොල්ල කියන්නේ මේක දැන් පක්ෂවලට හොඳයි මේ පුංචි ඉතින් ඒ screen එකේ value එක එහෙමද touch screen එකේ මිල ගණන් මෙච්චර වැඩි නිසා තමයි ෆෝන් එකේ value එක මේ විදියට වේගයෙන් අඩු වෙන්න පටන් අරගෙන තියෙන්නේ තමයි මම පොඩ්ඩක් නෙට් එකේ සර්ච් කරලා බැලුවා ඉන්ටර්නෙට් එකෙන් එකක්නෙ place කරන්න රුපියල් කීයක් යනවද කියලා ඇතිනේ ඩොලර් 269 කියලා තමයි දෙක ආසන්න වශයෙන් රුපියල් දෙදහක් විතර ax1 එතකොට service charge හරි මොනාහරි 92000 ඇත්තටම ටිකක් ලොකු ගානක් ඉගෙන ගන්න තියෙන පාඩම තමයි අපි screen එක ගොඩක් හොඳට රැකගන්න නම් අර කලින් කියපු විදිහට වෙන්න ගත්තා ලේසියෙන්ම ඩැමේජ් වෙන්න ඉඩ තියෙනවා අපි හිතන්නෙවත් නැති වෙලාවේ ගොඩක් වෙලාවට hemi use කරන්නැති පෝන් එකක් වුණත් මේ විදිහට ස්ප්‍රින් එක tamil වෙන්න ඕන තරම් ඉඩ තියෙනවා මං හිතන්නේ කරමින් සිටින්නේ ගෙන ආ වගේ ෆෝන් එකේ screen එක ඩැමේජ් වෙලා තියෙනවද කොච්චර කාලෙකට කලින් ද ඒ වගේම මොකක් කරන්න ගියාද screen එක එයි දිනේ එක රීප්ලේස් කරන්න රුපියල් කීයද ෆෝන් එක මොකක්ද වගේ දේවල් අපි පොඩ්ඩක් පලයන් මේ සාකච්ඡා කරමු ඔයාගේ ඒ කමෙන්ට් ටික එකතු කරලා අපිට තව වීඩියෝ එකක් හදන්න පුළුවන් වෙයි ශ්‍රී ලංකාවේ මේය ස්මාට් ෆෝන් වල ස්ක්‍රීන් භාවිතය ගැන ඉතින් අවසාන වශයෙන් අපි ඉගෙන ගන්න තියෙන පාඩම තමයි ෆෝන් එකක් මිලදී ගන්න කොට අපි screen protector එකක් පාවිච්චි කරන්න ඕනේ ඒ වගේම බැක් කවර් එකක් වගේ දෙයක් පාවිච්චි කරන්න ද මේකෙ front එකේ එඩ්‍රස් එක වගේ වෙනවා ඇම්බැක්කේ ගියාම අපිට ඒ වගේම ටිකක් ලොකු මුදලක් එක රීප්ලේස් කරන්න එන නිසා ෆෝන් එකටත් ඇක්ෂන් එකක් දාගන්න සිද්ධ වෙනවා කියලා තමයි අද වීඩියෝ එක අද වීඩියෝ ගැන මට හිතුන දේවල් අනිවාර්යෙන් පල කෑම කන්න ගෙන් දන්නවාට තව ගැටලු තියෙනවනම් palagama සෙක්ස් උන්ගෙන් අපි සාකච්ඡා කරමු ඊලගට අපි බලමු මේක රිප්ලේස් කරන්න ගියාම මේකට උන්ට කිරීම කරන්න පුළුවන් වෙයිද ඒ මං ගත්තම ඒකට අපිට මුදල් ගෙවන්නේ වෙයිද එක රීප්ලේස් කරන්න රුපියල් කීයක් යයිද එතකොට කොච්චර දින ගණනක් යයිද මේ හැමදෙයක්ම අපි වෙනුවෙන් කතා කරන්න බලාපොරොත්තු වෙනවා කරන්න install කරන්න යාලුවෙක් දැන ගන්න වීඩියෝ එක ශෙයා කරන්න ඉගෙන සිංහල ගීක් ෂෝ එකේ අලුත් දේවල් ගොඩක් කරන්න හම්බ</t>
+          <t xml:space="preserve"> මගෙත් ඉතින් ෆෝන් එකට මේ වෙනකොට පඩි එකක් ගහලා නැහැ හැබැයි අපිට පුළුවන් නම් නියම අතේ තියෙන කොටම wirelessly මෙන්න මේ විදියට ෆෝන් එකක් චාජ් කරන්න ඒකට අපිට ෆෝන් චාර්ජ් කරන්න පුළුවන් කියලා කියන්න පුළුවන් හැකියාව ලැබෙනවා අද කතා කරන්නේ මේ වෙනකොට sony සමාගමෙන් හඳුන්වලා දීලා තියෙනවා මෙන්න මේ විදිහට කිසිම බයකින් කෙනෙක් කරන්නැතුව පෝන් එකක් චාජ් කරන්න පුළුවන් ක්‍රමයක් ගැන ඉතින් මොකක්ද එතකොට මෙන්න මේ විදිහට වයසකට කැනක් කරපු බ්ලොග් එකක් අපි ගාවට එනවා වෙනම ඉඩක් එක උඩින් ෆෝන් එක මේ විදිහට තිබ්බම තමයි වයලා කියමින් එක චාජ් වුනා කියලා කියන්නේ ඇත්තටම මේ විදිහට lankaran වයලා ක්‍රියා වුනාට මේකත් අර සුපුරුදු අයට කරලම තමයි දෙනවා අලුතින්ම ආපු ඇපල් අයි ෆෝන් එකෙන් මැසේජ් එකක් මෙන්න මේ විදියේ එකක් තමයි shawmila මේ ලඟදි වීඩියෝ එකක් නිකුත් කරා මේකට කියන්නේ මේ එයා චාජ් ටෙක් නොවී කියලා ඉල්ලලා කියනවා ස්මාට් ෆෝන් එක මේ තරම් දියුණු වෙවී ආසයි තාමත් අපි පරණ විදියටම තමයි ස්මාට් ෆෝන් එක චාර්ජ් කරන්නේ එතකොට මේකට futuristic ලුක් එකක් දෙන්න අලුත්ම තාක්ෂණය පාවිච්චි කරන්න babala නෙමෙයි චාර්ජින් ස්ටේෂන් එකක්නෙ කළ නිර්මාණය කරලා තියනවා වෙන මේතා හරහා අපිට පුළුවන් වෙනවා ෆෝන් එක අතේ තියන් ඉද්දි පවා කලින් ස්ටේෂන් එකට මීටර පහක් දහයක් ඈතින් හිටියත් වගේ phone එක realtime එහෙමද ඒ වෙලාවෙම චාජ් කරගත් ඉතින් wirelessly අපිට ප්‍රශ්න කරනවා වගේ වයර් sleep ඉන්න පුළුවන් විදියට තමයි මේක නිර්මාණය කරා කියලා වීඩියෝ එකෙන් එනවා කරල තියෙන්නෙ එකම එක නිර්මාණය කලාද එහෙමද කම් මේක concept එකක් විතරද එහෙමත් නැත්තං එහෙම කරන්න බලාපොරොත්තු වෙනවා ද මේ කිසිම දෙයක් මැදලා වෙබ් අඩවි වල මේ වීඩියෝ එකත් සඳහන් කරලා නැහැ නමුත් මේ වෙනකොට ගොඩක් අය මේක මිලදි ගන්නේ කොහෙන්ද කියලා හොයනව සමහරවිට මේක ෆොටෝ එකක් හෝ කන්සෙප්ට් එකක් වෙන්න පුළුවන් මේක බලනකොට මට මතක් උනේ නිකොලා ටෙස්ලාගේ tesla coil එක ටෙස්ලාගේ කාලේ මේ ටෙස්ලා කොයිල් කියලා තමන්ගෙම නිර්මාණයක් නෑ නිර්මාණය කළා මේ ගෙඩි මෙයා demostrate තමන්ගේ අතේ බල්බ් එකක් තියාගෙන මේක කොහොමද වය ලෙස්ලි පත්තු කරන්නේ කියලා ඒ විතරක් නෙමේ එකම එයාව mas කෙල්ලෙක් එහෙම රටක් ටිකක් ලොකු skill එකෙන් කරලා පෙන්නුවා මීටර් සීයක් මීටර් තිහක් ඈත තියෙන කොහොමද බල්බ් එකක් පත්තු කරන්න කියන ගස් දෙකක් අරං ආවා නමුත් ඒක හිමීට අමතක වෙලා හෝ නැතිවෙලා හේතුවක් ඇතිව හෝ නැතිව නැතිවෙලා ගිහිල්ලා තියෙනවා ඒ සම්බන්ධව ඉස්සරහ විහිළුවකින් කතා කරන්න බලාපොරොත්තු වෙනවා එක පාවිච්චි කළ මේ විදිහට එකක් නිර්මාණය කරොත් අපිට කොයිතරම් බෙනිෆිට්ස් ගන්න පුළුවන් අපි ගේම් එකක් ලේ කරනකොට මේ කිසිම හානියක් වෙන්නේ නැතුව අපිට ඉගෙන අපිට කරදරයක් වෙන්නෙ නැතුව වයස් පැටලෙන්නේ නැතුව මෙන් එකක් කරගන්න පුලුවන් අනිත් දේ තමයි අපේ සින්දුවක් අහනකොට මට පාවිච්චි කිසිම විදියකින් අපි කොහෙටවත් කෙනෙක් වෙලා නැහැ අනිත් එක තමයි multiple devices කරගන්න පුලුවන් කෑම්ප් එකක් තියෙනවා කියලා තමයි shawmila මේකට කියන්නෙ ඔයාගේ phone එක හෝ iphone එක gaming mouse එකේ කෝල් එක වගේ කැමරා එකේ හැම දෙයක්ම මේ වෙනකොට අපි පැටලී පාවිච්චි කළ නිසා බැටරි වලින් බල ගැන්වෙන හැම දෙයක්ම වගේ වයලා කීයක් කරගන්න පුලුවන් වෙන එක ඇත්තටම අපි ලබපු ලොකු ජයග්‍රහණයක් වෙයි මේ device එක සාමාන්‍ය මිනිස්සුන්ට පාවිච්චි කරන්න පුළුවන් එකට ආවොත් තාක්ෂණික ලෝකයේ ඉන්නවා ආයතනයක නීති මේ ආයතන වලට කලින් shawmila මේ වගේ දෙයක් එන්න අස්කරන එක ඇතුලෙ කලබල ලොකු ජයග්‍රහනයක් විදිහට එක හිතනවා ඇති වගේම ඇත්තටම අපිටත් ඒක ලොකු benifict එකක් වෙයි ඕන මේකේ වාසි වගේම අවාසිත් තියෙන පළවෙනි එක තමයි මේක 5port පහක වගේ ඉගෙන original iphone වන්නේ කතා කරපු ස්පීඩ් එකෙන් වගේ තමයි තාමත් ඒ බලන්න chari කරන්න වෙන්නේ එතකොට අපිට මේක ගොඩක් පස්චාත් කරගන්න වෙන්නේ නැහැ අනිත් එක තමයි මේ කියන්නේ එහෙම ගත්තා මේකට ගොඩක් එන ගියදා ප්ලේස්ටෝර් එකෙන් එකක් ස්ටේෂන් ගොඩක් ලොකු එකක් දෙන්න සිද්ධ වෙනවා අපේ කරන්න අවශ්‍ය වෙන නිසා සමහරවිට මේවා නිසා තෙල් එන්නත් ඉඩ තියෙනවා තාම දන්නේ නැහැ බිරිඳ ගැන විස්තර කතා කරන්න ඉරි මොකද හිතන්නේ මේ එයා චාජ් technoly giyata ගැන පළ කෑම section එක දාන්න නිවැරැදිව දැනගන්න chamude රෝග subscribe කරන්න මිස ගැනීමකින් හලෝ කරන්න එක sinhala dictionary</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yZD3oerZ_Pw</t>
+          <t>_rEd2Ms2x5Q</t>
         </is>
       </c>
     </row>
